--- a/data/trans_orig/LAWTONB_2R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>81114</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70599</v>
+        <v>71232</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89999</v>
+        <v>90064</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7054085508173503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6139665338254724</v>
+        <v>0.6194709470577526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7826753782457374</v>
+        <v>0.783242481066094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -765,19 +765,19 @@
         <v>103791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91609</v>
+        <v>92187</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114934</v>
+        <v>114472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6940892888503215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.612623623958687</v>
+        <v>0.6164927241075401</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7686078269228538</v>
+        <v>0.7655192944278713</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -786,19 +786,19 @@
         <v>184905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>169716</v>
+        <v>168322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199467</v>
+        <v>198886</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6990097802204706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6415896823034792</v>
+        <v>0.6363211425232407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7540604533852574</v>
+        <v>0.7518626658662723</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>14169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7721</v>
+        <v>7875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22506</v>
+        <v>21729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1232217059684863</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06714552471896887</v>
+        <v>0.06848387284667229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1957250894352846</v>
+        <v>0.1889658155969746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -836,19 +836,19 @@
         <v>20131</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12606</v>
+        <v>12807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29634</v>
+        <v>28772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1346253323407091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08430357934182763</v>
+        <v>0.08564354311815764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1981720847101067</v>
+        <v>0.1924098623664899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -857,19 +857,19 @@
         <v>34300</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25163</v>
+        <v>24435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47358</v>
+        <v>45767</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1296681677025578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09512541861741472</v>
+        <v>0.09237347205511295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1790328664989455</v>
+        <v>0.1730151233911723</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1947</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11704</v>
+        <v>12497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05014441568770127</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01693563063440337</v>
+        <v>0.01739090977532969</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1017818493565486</v>
+        <v>0.1086791863825393</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>11394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6015</v>
+        <v>6073</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18711</v>
+        <v>19284</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07619694539222482</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04022487286524096</v>
+        <v>0.04060978048488879</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1251249843634047</v>
+        <v>0.1289607173714594</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -928,19 +928,19 @@
         <v>17160</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10993</v>
+        <v>10737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26134</v>
+        <v>26515</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06487189187238754</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04155901646796972</v>
+        <v>0.04059012053493637</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09879515671357821</v>
+        <v>0.1002354699640617</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2802</v>
+        <v>2823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12428</v>
+        <v>13201</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0574479208017601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02436954365748284</v>
+        <v>0.02454857003346136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1080776251512851</v>
+        <v>0.1148049076916562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -978,19 +978,19 @@
         <v>5107</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1997</v>
+        <v>1949</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11753</v>
+        <v>12057</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03415549706026683</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01335397944024367</v>
+        <v>0.01303603239633923</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07859496738008954</v>
+        <v>0.08062706536738526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -999,19 +999,19 @@
         <v>11713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6151</v>
+        <v>6500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19420</v>
+        <v>20956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04428073052016143</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02325317865635159</v>
+        <v>0.02457307212860722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0734131361764648</v>
+        <v>0.07922321145920309</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>7334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3580</v>
+        <v>3648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13560</v>
+        <v>13189</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06377740672470197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03113068864867244</v>
+        <v>0.03172773148059414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1179234486416597</v>
+        <v>0.1146964545018647</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1049,19 +1049,19 @@
         <v>9112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4534</v>
+        <v>4518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16585</v>
+        <v>17902</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06093293635647772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03032216776760347</v>
+        <v>0.0302139967646207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1109115852787538</v>
+        <v>0.1197158209513492</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1070,19 +1070,19 @@
         <v>16445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9128</v>
+        <v>10014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25211</v>
+        <v>26131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06216942968442266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03450868877399479</v>
+        <v>0.03785820112361089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09530683977628758</v>
+        <v>0.09878635603479451</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>97867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86748</v>
+        <v>85886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107975</v>
+        <v>108245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6708311875062659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5946133584854639</v>
+        <v>0.5887084597142995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.740114061941644</v>
+        <v>0.7419651365106618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -1195,19 +1195,19 @@
         <v>114136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100639</v>
+        <v>100698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128263</v>
+        <v>127234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6247875637309745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5509037123297102</v>
+        <v>0.5512267033348928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7021179148571294</v>
+        <v>0.6964860019864837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -1216,19 +1216,19 @@
         <v>212002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193817</v>
+        <v>192906</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>228449</v>
+        <v>228690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6452315559311824</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5898830511348782</v>
+        <v>0.5871103462947145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6952858329458594</v>
+        <v>0.6960200975841698</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>27797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20093</v>
+        <v>19458</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38842</v>
+        <v>38583</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1905330272611639</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1377312606746475</v>
+        <v>0.1333731271880719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2662419495468133</v>
+        <v>0.2644665763952538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -1266,19 +1266,19 @@
         <v>30954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20115</v>
+        <v>21293</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42055</v>
+        <v>41971</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1694412575418236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.110109963501774</v>
+        <v>0.1165606954617698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2302126189125197</v>
+        <v>0.2297528470957711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -1287,19 +1287,19 @@
         <v>58750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46017</v>
+        <v>45428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74231</v>
+        <v>73559</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1788062887942545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1400532541649041</v>
+        <v>0.1382615975632629</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2259235579828831</v>
+        <v>0.2238782359433118</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>7845</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3812</v>
+        <v>3691</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13986</v>
+        <v>14672</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05377559205742174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02612990485367445</v>
+        <v>0.02530208762173759</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09586655443967824</v>
+        <v>0.1005662480947683</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1337,19 +1337,19 @@
         <v>20994</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13031</v>
+        <v>13665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32178</v>
+        <v>31263</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1149195644262274</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.071330217317344</v>
+        <v>0.07480408931957183</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1761429008568458</v>
+        <v>0.1711370027470852</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1358,19 +1358,19 @@
         <v>28839</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19906</v>
+        <v>19609</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40211</v>
+        <v>40586</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08777081305300477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06058503942176394</v>
+        <v>0.05967910663225882</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1223827933554533</v>
+        <v>0.1235235971095915</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>8608</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3852</v>
+        <v>3856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14968</v>
+        <v>15740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05900187180675812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02640152628848542</v>
+        <v>0.0264316904101202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1025957374542455</v>
+        <v>0.1078904055269717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1408,19 +1408,19 @@
         <v>4742</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10884</v>
+        <v>10981</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02595982426084394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006595571654328836</v>
+        <v>0.006660659443921067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05957756495355676</v>
+        <v>0.06010956997540803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1429,19 +1429,19 @@
         <v>13350</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7664</v>
+        <v>7207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21602</v>
+        <v>21069</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04063094062658208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02332412417386855</v>
+        <v>0.02193355245988047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06574639450286658</v>
+        <v>0.06412351761858989</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>3772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8938</v>
+        <v>8796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02585832136839039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006423446955552519</v>
+        <v>0.006389572372952952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06126599834611387</v>
+        <v>0.06029506281378864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1479,19 +1479,19 @@
         <v>11854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6172</v>
+        <v>5980</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21333</v>
+        <v>21430</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06489179004013053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03378443650050966</v>
+        <v>0.03273316228219815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1167797246323175</v>
+        <v>0.1173078324057748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1500,19 +1500,19 @@
         <v>15627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8776</v>
+        <v>8790</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25399</v>
+        <v>25371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0475604015949763</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02670958090148206</v>
+        <v>0.0267514009423563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07730240371588694</v>
+        <v>0.0772175869181591</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>82795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72978</v>
+        <v>73942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90197</v>
+        <v>90482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7932780827997098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6992200760792654</v>
+        <v>0.7084501842624441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8641990282727422</v>
+        <v>0.8669242777243726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1625,19 +1625,19 @@
         <v>89386</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77764</v>
+        <v>77928</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99612</v>
+        <v>99656</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6579729306188172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5724248876244025</v>
+        <v>0.5736292036977299</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7332469981857831</v>
+        <v>0.7335767285125669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -1646,19 +1646,19 @@
         <v>172181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158215</v>
+        <v>157871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185864</v>
+        <v>186421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.716760246111282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6586246259097546</v>
+        <v>0.6571904657788751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7737227817529989</v>
+        <v>0.7760396941120737</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>10155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5240</v>
+        <v>4672</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17988</v>
+        <v>18161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09729432263856795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0502028330579956</v>
+        <v>0.04476807803340415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1723458731450911</v>
+        <v>0.1740015639039427</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1696,19 +1696,19 @@
         <v>27466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18374</v>
+        <v>18754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38346</v>
+        <v>37287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2021760969950965</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1352515917359415</v>
+        <v>0.1380511733143472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2822636106765412</v>
+        <v>0.2744698543058777</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1717,19 +1717,19 @@
         <v>37620</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26877</v>
+        <v>27064</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50192</v>
+        <v>49793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1566071156287133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1118858510204776</v>
+        <v>0.1126610436175485</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2089398020379936</v>
+        <v>0.2072799956825719</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>7639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3418</v>
+        <v>3310</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15804</v>
+        <v>14720</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07319292129870571</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.032751194554352</v>
+        <v>0.03171630489907599</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1514240160026932</v>
+        <v>0.1410351299310114</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1767,19 +1767,19 @@
         <v>6238</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2624</v>
+        <v>2245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12250</v>
+        <v>13428</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0459163895331127</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01931715568722794</v>
+        <v>0.01652459337896043</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09017319549901474</v>
+        <v>0.09884377556280209</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1788,19 +1788,19 @@
         <v>13877</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7528</v>
+        <v>8247</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23127</v>
+        <v>22783</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05776748354245521</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03133942695687821</v>
+        <v>0.03432892844821591</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09627549717189718</v>
+        <v>0.09484173248344824</v>
       </c>
     </row>
     <row r="19">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4343</v>
+        <v>4853</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009255300768845396</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04161073442445271</v>
+        <v>0.04649819779610334</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1838,19 +1838,19 @@
         <v>6192</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2781</v>
+        <v>2296</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12783</v>
+        <v>13264</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04558130069612115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02046896387432998</v>
+        <v>0.01690078950530106</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0940966651295512</v>
+        <v>0.0976360544601912</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1859,19 +1859,19 @@
         <v>7158</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3226</v>
+        <v>2910</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14372</v>
+        <v>14571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02979839824279106</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0134303589922505</v>
+        <v>0.01211533327703097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05982654691000264</v>
+        <v>0.06065717698705315</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>2816</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8373</v>
+        <v>7685</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02697937249417112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008420464584404978</v>
+        <v>0.008627468360042289</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08022665635847762</v>
+        <v>0.07362731785096081</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1909,19 +1909,19 @@
         <v>6569</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2339</v>
+        <v>2455</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13046</v>
+        <v>12473</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04835328215685235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01721880516318586</v>
+        <v>0.01807248721574349</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.096028801322703</v>
+        <v>0.09181803179745975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1930,19 +1930,19 @@
         <v>9385</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4365</v>
+        <v>4185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17025</v>
+        <v>17307</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03906675647475845</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01817238099112805</v>
+        <v>0.01742164213387577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07087105275677087</v>
+        <v>0.07204417707869692</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>108481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99650</v>
+        <v>98811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116940</v>
+        <v>117619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7905799508638085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7262196810573072</v>
+        <v>0.7201051338622371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8522262924265327</v>
+        <v>0.857177832088114</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>134</v>
@@ -2055,19 +2055,19 @@
         <v>136785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122305</v>
+        <v>123307</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150216</v>
+        <v>150857</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6551744943566984</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5858150178327333</v>
+        <v>0.5906156335420181</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7195031663540412</v>
+        <v>0.7225734715078247</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -2076,19 +2076,19 @@
         <v>245267</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228087</v>
+        <v>229278</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>260857</v>
+        <v>262009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7088746774250138</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6592199379148578</v>
+        <v>0.6626628833533321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7539337635222191</v>
+        <v>0.7572622152817272</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>15435</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9189</v>
+        <v>8997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23829</v>
+        <v>23692</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1124852882302164</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06696687206712591</v>
+        <v>0.06556475451033887</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1736625646014176</v>
+        <v>0.1726600424999892</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -2126,19 +2126,19 @@
         <v>28349</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19091</v>
+        <v>19099</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40094</v>
+        <v>39585</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1357870191872635</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09144169923513408</v>
+        <v>0.09148116406887745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1920413210379394</v>
+        <v>0.1896026587608205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -2147,19 +2147,19 @@
         <v>43784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32104</v>
+        <v>32027</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56895</v>
+        <v>57634</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1265458316422376</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09278660518805551</v>
+        <v>0.09256465762903775</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1644399769303371</v>
+        <v>0.1665749457842254</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>5873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2514</v>
+        <v>2531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10994</v>
+        <v>11669</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04279833489554957</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0183185888209959</v>
+        <v>0.01844546983726798</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08011996615688208</v>
+        <v>0.08504185528799153</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -2197,19 +2197,19 @@
         <v>25526</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16545</v>
+        <v>16897</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36140</v>
+        <v>36654</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1222622920249997</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07924517794413824</v>
+        <v>0.08093470095593054</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1731049981702469</v>
+        <v>0.1755635684970686</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -2218,19 +2218,19 @@
         <v>31398</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21714</v>
+        <v>21942</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>43093</v>
+        <v>43557</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09074783791612732</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06275694038357152</v>
+        <v>0.06341598495861397</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1245477183026689</v>
+        <v>0.1258888309432873</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>4101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1626</v>
+        <v>1612</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8981</v>
+        <v>9089</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02988558571919259</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01184857537170273</v>
+        <v>0.01174559155600559</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06544881680860086</v>
+        <v>0.06623965459919226</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2268,19 +2268,19 @@
         <v>9483</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4315</v>
+        <v>4304</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17289</v>
+        <v>16547</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04542229665833931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02066737687702667</v>
+        <v>0.02061396221357212</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08281315597321198</v>
+        <v>0.07925800725817281</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2289,19 +2289,19 @@
         <v>13584</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7653</v>
+        <v>7811</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22066</v>
+        <v>22500</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03926062309485284</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02211923478178518</v>
+        <v>0.02257448183174393</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06377512484381623</v>
+        <v>0.06503106578908908</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8282</v>
+        <v>7545</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02425084029123294</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006193592781740673</v>
+        <v>0.006081046358719342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06035872364327463</v>
+        <v>0.05498553839141788</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2339,19 +2339,19 @@
         <v>8634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4088</v>
+        <v>3402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15639</v>
+        <v>16348</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04135389777269911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01958116561838366</v>
+        <v>0.01629443218018821</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07490822861729921</v>
+        <v>0.07830130943576002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2360,19 +2360,19 @@
         <v>11961</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6456</v>
+        <v>6228</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20359</v>
+        <v>19770</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03457102992176855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01865864278529815</v>
+        <v>0.01800026175803139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05884194509192956</v>
+        <v>0.05714008616491426</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>370257</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>350297</v>
+        <v>349048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>388751</v>
+        <v>388210</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.736880477137021</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.697155183151392</v>
+        <v>0.694669413609633</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.773686835163971</v>
+        <v>0.7726094510702965</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>444</v>
@@ -2485,19 +2485,19 @@
         <v>444098</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>828</v>
@@ -2506,19 +2506,19 @@
         <v>814355</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>780074</v>
+        <v>784663</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>844424</v>
+        <v>844615</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6905365151775023</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6614678235704385</v>
+        <v>0.6653587816690097</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7160336201676427</v>
+        <v>0.7161951541237752</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>67555</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53440</v>
+        <v>52962</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>84085</v>
+        <v>83890</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1344476945344142</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.106354897526927</v>
+        <v>0.1054043613720463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1673444697453322</v>
+        <v>0.1669573599176143</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>101</v>
@@ -2556,19 +2556,19 @@
         <v>106900</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88215</v>
+        <v>87911</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127470</v>
+        <v>126236</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1579386664102227</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.130333363259295</v>
+        <v>0.1298836146458097</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1883310446480567</v>
+        <v>0.1865072891104948</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>171</v>
@@ -2577,19 +2577,19 @@
         <v>174455</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>150035</v>
+        <v>151409</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>199303</v>
+        <v>199983</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1479299029922561</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1272227677465345</v>
+        <v>0.1283877278563637</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1689999418618041</v>
+        <v>0.1695766046904804</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>27123</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17608</v>
+        <v>18647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37864</v>
+        <v>39285</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05398016347910241</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03504304266777843</v>
+        <v>0.03711111501704625</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07535682882441976</v>
+        <v>0.07818359295251807</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -2627,19 +2627,19 @@
         <v>64151</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47790</v>
+        <v>50584</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>80164</v>
+        <v>81615</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09477975489245094</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07060731393166932</v>
+        <v>0.07473497500389752</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1184376730029142</v>
+        <v>0.1205820363180387</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>87</v>
@@ -2648,19 +2648,19 @@
         <v>91274</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>73561</v>
+        <v>73074</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>111493</v>
+        <v>110447</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07739633371410291</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06237599733316485</v>
+        <v>0.06196349788096284</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09454083314973984</v>
+        <v>0.09365388823610853</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>20280</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13457</v>
+        <v>13329</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30835</v>
+        <v>29482</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04036171597111994</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02678199731724306</v>
+        <v>0.02652747318222822</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06136720379502251</v>
+        <v>0.05867415736501651</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2698,19 +2698,19 @@
         <v>25525</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16297</v>
+        <v>16925</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36753</v>
+        <v>37917</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03771210716283247</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02407823626761579</v>
+        <v>0.02500646297350305</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05430060645900752</v>
+        <v>0.05602032283088268</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>46</v>
@@ -2719,19 +2719,19 @@
         <v>45806</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34320</v>
+        <v>33358</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>59239</v>
+        <v>59021</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03884102204351562</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02910173099134611</v>
+        <v>0.02828588653725595</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05023215507542412</v>
+        <v>0.05004722084603789</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>17250</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10585</v>
+        <v>11062</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25824</v>
+        <v>27075</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03432994887834244</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02106539530807635</v>
+        <v>0.02201491763379411</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05139530729541737</v>
+        <v>0.05388336473384227</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -2769,19 +2769,19 @@
         <v>36169</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25695</v>
+        <v>25103</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49947</v>
+        <v>50238</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05343724201645794</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03796362461719299</v>
+        <v>0.03708819728471081</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07379356181371877</v>
+        <v>0.07422377144523715</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>52</v>
@@ -2790,19 +2790,19 @@
         <v>53418</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>40067</v>
+        <v>40762</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>69144</v>
+        <v>68586</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04529622607262302</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03397512493163052</v>
+        <v>0.03456421460058601</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05863097387920072</v>
+        <v>0.05815766229732965</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>105242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93823</v>
+        <v>93885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116451</v>
+        <v>115188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.754171834788795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6723413249564505</v>
+        <v>0.6727843325658064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8344940782336293</v>
+        <v>0.8254405656210859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -3155,19 +3155,19 @@
         <v>104852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91448</v>
+        <v>92031</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116888</v>
+        <v>116357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.628658219036641</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5482904768316185</v>
+        <v>0.5517850678366314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7008204832576714</v>
+        <v>0.697640830214993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>197</v>
@@ -3176,19 +3176,19 @@
         <v>210094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192788</v>
+        <v>192683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226387</v>
+        <v>226093</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6858346777136051</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6293390199164296</v>
+        <v>0.6289961393601867</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7390203715963488</v>
+        <v>0.7380589674326333</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>9582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4254</v>
+        <v>5037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17229</v>
+        <v>17125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06866738834143903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03048631452401864</v>
+        <v>0.03609472848293955</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1234602980864147</v>
+        <v>0.1227199106742373</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -3226,19 +3226,19 @@
         <v>17118</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10605</v>
+        <v>9921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25892</v>
+        <v>25529</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1026339522518269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0635841374804987</v>
+        <v>0.05948492222665006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1552394369871887</v>
+        <v>0.1530619748919759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -3247,19 +3247,19 @@
         <v>26700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17282</v>
+        <v>18327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38170</v>
+        <v>38613</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08716082747422747</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05641423806388982</v>
+        <v>0.05982559322833695</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1246038101296079</v>
+        <v>0.1260472581737519</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>14133</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7942</v>
+        <v>8166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22420</v>
+        <v>22612</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1012752537284052</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05691455906579715</v>
+        <v>0.05852077935890886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.160660391789279</v>
+        <v>0.1620370916135175</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -3297,19 +3297,19 @@
         <v>21140</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12473</v>
+        <v>13925</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30968</v>
+        <v>30948</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1267486898987471</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07478262831094351</v>
+        <v>0.08348726454533291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1856726238463654</v>
+        <v>0.1855523608004928</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -3318,19 +3318,19 @@
         <v>35273</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25166</v>
+        <v>24867</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48960</v>
+        <v>47727</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1151445235951496</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08215159338865149</v>
+        <v>0.08117659082384744</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1598258089355572</v>
+        <v>0.1558008044783549</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>5381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1080</v>
+        <v>1111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13800</v>
+        <v>13730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03856235779164861</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007739196547645751</v>
+        <v>0.007958808504030523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09888942840299701</v>
+        <v>0.09839224614568265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3368,19 +3368,19 @@
         <v>12123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6539</v>
+        <v>6087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20858</v>
+        <v>19731</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07268465208436568</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03920591438510779</v>
+        <v>0.03649639180204223</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1250569383884995</v>
+        <v>0.1182992523906703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -3389,19 +3389,19 @@
         <v>17504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9898</v>
+        <v>9969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29489</v>
+        <v>28056</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05714058590557534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03231070856257526</v>
+        <v>0.03254246457390702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09626395344640337</v>
+        <v>0.09158534462845447</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>5208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2042</v>
+        <v>1940</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11788</v>
+        <v>10562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03732316534971215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01463158033245535</v>
+        <v>0.01390506534593552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08447221812476267</v>
+        <v>0.07568768699278181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -3439,19 +3439,19 @@
         <v>11554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6099</v>
+        <v>6120</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19908</v>
+        <v>18992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06927448672841933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03656615196519591</v>
+        <v>0.03669141118600619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1193618279047786</v>
+        <v>0.1138725265814077</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -3460,19 +3460,19 @@
         <v>16762</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10341</v>
+        <v>10392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26636</v>
+        <v>26445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05471938531144261</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03375725276695923</v>
+        <v>0.03392455122807062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08695065648980106</v>
+        <v>0.08632683881193058</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>109222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97445</v>
+        <v>97291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119922</v>
+        <v>120443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7052138941788531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6291726298539363</v>
+        <v>0.6281789482664318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7742992178777811</v>
+        <v>0.777664704371297</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -3585,19 +3585,19 @@
         <v>101931</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87490</v>
+        <v>88486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116459</v>
+        <v>115131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5324991001935162</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.457055562766163</v>
+        <v>0.46226073793432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6083946157131922</v>
+        <v>0.6014569845889851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -3606,19 +3606,19 @@
         <v>211153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192942</v>
+        <v>192503</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>229342</v>
+        <v>229390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6097439297302112</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5571549328525933</v>
+        <v>0.5558872945425777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6622677941914559</v>
+        <v>0.6624075487267479</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>8549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3387</v>
+        <v>4219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15647</v>
+        <v>16112</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0551985380287448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02186891223958924</v>
+        <v>0.0272381815435746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1010266966270211</v>
+        <v>0.104030721947943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -3656,19 +3656,19 @@
         <v>29207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20298</v>
+        <v>20262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40952</v>
+        <v>40102</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1525793031667496</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1060396155895957</v>
+        <v>0.1058498123075709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2139369095147025</v>
+        <v>0.2094963266429898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -3677,19 +3677,19 @@
         <v>37756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27502</v>
+        <v>27089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50573</v>
+        <v>51304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1090268058405696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07941694023591106</v>
+        <v>0.07822376537811836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1460379907612019</v>
+        <v>0.1481499383667547</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>8689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4227</v>
+        <v>4244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16415</v>
+        <v>15684</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05610069381821611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02729445624396568</v>
+        <v>0.0274052787405684</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1059887308419465</v>
+        <v>0.1012689781568075</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -3727,19 +3727,19 @@
         <v>11868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6342</v>
+        <v>6535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20543</v>
+        <v>20544</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06199945806667268</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03313150873683354</v>
+        <v>0.03414142292311424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1073175400998671</v>
+        <v>0.1073261855716436</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -3748,19 +3748,19 @@
         <v>20557</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13148</v>
+        <v>12696</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31639</v>
+        <v>30159</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05936129935232502</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03796806693237278</v>
+        <v>0.03666222620081466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09136349568858788</v>
+        <v>0.08708874438480012</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>15418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8793</v>
+        <v>8966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24995</v>
+        <v>25930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09955052145957288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05677322233972575</v>
+        <v>0.05789165828319028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1613866071585802</v>
+        <v>0.1674244986572653</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -3798,19 +3798,19 @@
         <v>26123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17571</v>
+        <v>17545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36857</v>
+        <v>37172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1364708464068723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09179492292780876</v>
+        <v>0.0916589314246741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1925470159439828</v>
+        <v>0.1941905248226385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3819,19 +3819,19 @@
         <v>41541</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29923</v>
+        <v>30643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55491</v>
+        <v>56070</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.119958629119709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08640730270917138</v>
+        <v>0.08848652740860419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1602409440386149</v>
+        <v>0.1619122314757367</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>13000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6444</v>
+        <v>6588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22143</v>
+        <v>21991</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08393635251461319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04160886087947527</v>
+        <v>0.04253497193971396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1429678232164001</v>
+        <v>0.1419882450857565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3869,19 +3869,19 @@
         <v>22291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13261</v>
+        <v>13557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33102</v>
+        <v>31263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1164512921661892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06927822836116164</v>
+        <v>0.0708258886699167</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1729291332450755</v>
+        <v>0.163323469445236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -3890,19 +3890,19 @@
         <v>35291</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24363</v>
+        <v>24403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48443</v>
+        <v>47428</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1019093359571852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07035266160234671</v>
+        <v>0.07046724704712341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.13988687164163</v>
+        <v>0.1369558767212277</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>75658</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64006</v>
+        <v>64542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84741</v>
+        <v>84971</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7302998679541778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.617833880251878</v>
+        <v>0.6230086031980425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8179766210487013</v>
+        <v>0.8202012113602812</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -4015,19 +4015,19 @@
         <v>88103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75479</v>
+        <v>75893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98860</v>
+        <v>100723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6247622597901554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5352391788215004</v>
+        <v>0.5381726980038638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7010419875455047</v>
+        <v>0.7142493082543997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>148</v>
@@ -4036,19 +4036,19 @@
         <v>163761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146391</v>
+        <v>149351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178567</v>
+        <v>179418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6694587154361129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5984481300966182</v>
+        <v>0.6105506281130682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7299879666400207</v>
+        <v>0.733463972176316</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>5329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1990</v>
+        <v>1057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15179</v>
+        <v>13904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05143950031607297</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01921080907898037</v>
+        <v>0.01020057501974764</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1465155514349612</v>
+        <v>0.1342077602903994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -4086,19 +4086,19 @@
         <v>10926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5529</v>
+        <v>5319</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19019</v>
+        <v>18715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07747699219191274</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03921067019857058</v>
+        <v>0.0377205306522457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.134866151945356</v>
+        <v>0.1327143095692342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -4107,19 +4107,19 @@
         <v>16255</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9355</v>
+        <v>9301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27517</v>
+        <v>26635</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06644979893818898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03824373951472142</v>
+        <v>0.03802185698076627</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1124881976580159</v>
+        <v>0.1088825251841013</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>6614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2805</v>
+        <v>2974</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13564</v>
+        <v>13496</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06383864604078923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0270766543642459</v>
+        <v>0.02870669997608647</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1309284489849018</v>
+        <v>0.1302751994478115</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -4157,19 +4157,19 @@
         <v>10666</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5409</v>
+        <v>5253</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18008</v>
+        <v>17684</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.075637929752831</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03835672855105451</v>
+        <v>0.03724767759127418</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.127700172864531</v>
+        <v>0.1254021991780482</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -4178,19 +4178,19 @@
         <v>17280</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10415</v>
+        <v>9705</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26754</v>
+        <v>27177</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07064079015241766</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04257808085803839</v>
+        <v>0.03967473708992116</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1093719457218638</v>
+        <v>0.1111015943582407</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>8428</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3255</v>
+        <v>3169</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17189</v>
+        <v>16411</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08135302570947327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03142221932908377</v>
+        <v>0.03059335264681158</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1659222780487292</v>
+        <v>0.1584112910546319</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4228,19 +4228,19 @@
         <v>12926</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7474</v>
+        <v>7384</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21876</v>
+        <v>20559</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09166145383548391</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05299719812932761</v>
+        <v>0.05236233702401673</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1551283067015778</v>
+        <v>0.1457877838881405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -4249,19 +4249,19 @@
         <v>21354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13076</v>
+        <v>13283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33574</v>
+        <v>33256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0872957096374754</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05345663897044469</v>
+        <v>0.05429923599117067</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1372504172356509</v>
+        <v>0.1359505920597965</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>7570</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3095</v>
+        <v>3168</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16300</v>
+        <v>15510</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07306895997948673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02987980532053638</v>
+        <v>0.0305841830451232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1573394737489658</v>
+        <v>0.1497138984139434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -4299,19 +4299,19 @@
         <v>18398</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11467</v>
+        <v>10958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28320</v>
+        <v>28661</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1304613644296169</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08131255065560464</v>
+        <v>0.07770253588486793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2008220271209715</v>
+        <v>0.2032440191221657</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -4320,19 +4320,19 @@
         <v>25967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16661</v>
+        <v>17352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37828</v>
+        <v>37351</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1061549858358051</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06811196824195737</v>
+        <v>0.07093663695928114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1546401163130325</v>
+        <v>0.1526903945525836</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>119557</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108348</v>
+        <v>106442</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130038</v>
+        <v>130006</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7397762347576062</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6704134323606824</v>
+        <v>0.6586219462160856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8046235938805021</v>
+        <v>0.8044252890727814</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -4445,19 +4445,19 @@
         <v>161471</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>146149</v>
+        <v>146234</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175747</v>
+        <v>176340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6624440472650385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5995849379498054</v>
+        <v>0.5999359968143737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7210114875656974</v>
+        <v>0.7234452396473057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>263</v>
@@ -4466,19 +4466,19 @@
         <v>281028</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>262111</v>
+        <v>261639</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>299367</v>
+        <v>299341</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6932754600024852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6466086513652715</v>
+        <v>0.64544465918123</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7385146956178869</v>
+        <v>0.7384506336918202</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>10096</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5021</v>
+        <v>4997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17999</v>
+        <v>18572</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06246903034035397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03106524495308995</v>
+        <v>0.03091936816564218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1113736803906221</v>
+        <v>0.1149147207902943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -4516,19 +4516,19 @@
         <v>34915</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24568</v>
+        <v>24854</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47404</v>
+        <v>47114</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1432392175974013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1007931827500192</v>
+        <v>0.1019635172204622</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1944774461805543</v>
+        <v>0.1932881978042176</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -4537,19 +4537,19 @@
         <v>45010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32884</v>
+        <v>33249</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>58837</v>
+        <v>58496</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1110371157178674</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08112180910425509</v>
+        <v>0.0820230455964764</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1451468767945405</v>
+        <v>0.1443060442513234</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>12517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6833</v>
+        <v>6243</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21060</v>
+        <v>21799</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07744803054034387</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04227966675467505</v>
+        <v>0.03863102984291193</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1303143876809316</v>
+        <v>0.1348816216460786</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -4587,19 +4587,19 @@
         <v>13370</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7104</v>
+        <v>7182</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22160</v>
+        <v>21905</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05484951799654372</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02914436572462207</v>
+        <v>0.02946380325387402</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09091387811303671</v>
+        <v>0.08986616367838852</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -4608,19 +4608,19 @@
         <v>25886</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18233</v>
+        <v>16982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>38952</v>
+        <v>38134</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06385927305561574</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04497923865878437</v>
+        <v>0.04189394928885448</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09609193422111692</v>
+        <v>0.09407270812372813</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>11288</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5874</v>
+        <v>5825</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20665</v>
+        <v>19447</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06984582038545412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03634867561909529</v>
+        <v>0.0360413940543168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1278682838707272</v>
+        <v>0.1203293120632225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -4658,19 +4658,19 @@
         <v>16342</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10243</v>
+        <v>9332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27469</v>
+        <v>26122</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0670448248047308</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04202459285506767</v>
+        <v>0.03828448046150709</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1126940525357136</v>
+        <v>0.1071688832624769</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -4679,19 +4679,19 @@
         <v>27630</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18323</v>
+        <v>18619</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40444</v>
+        <v>40517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06816154804281771</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04520071371463507</v>
+        <v>0.0459315838627621</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09977314600926375</v>
+        <v>0.0999518562421766</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>8155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3904</v>
+        <v>3994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16565</v>
+        <v>16310</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05046088397624185</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02415709481209508</v>
+        <v>0.02471171324161727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1024995863647439</v>
+        <v>0.1009224619290394</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -4729,19 +4729,19 @@
         <v>17653</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10578</v>
+        <v>10844</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26956</v>
+        <v>27833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07242239233628571</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04339581514301038</v>
+        <v>0.04448881288204545</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1105878023400365</v>
+        <v>0.1141862964790643</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -4750,19 +4750,19 @@
         <v>25808</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17143</v>
+        <v>16632</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37221</v>
+        <v>38067</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06366660318121398</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04228926894580028</v>
+        <v>0.04102914207690028</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09182096920870501</v>
+        <v>0.09390732507028172</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>409680</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>431</v>
@@ -4875,19 +4875,19 @@
         <v>456356</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>428533</v>
+        <v>429223</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>484735</v>
+        <v>484289</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6142285195971583</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5767795799388813</v>
+        <v>0.5777083653227872</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6524237750862577</v>
+        <v>0.6518236816946713</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>802</v>
@@ -4896,19 +4896,19 @@
         <v>866037</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>826943</v>
+        <v>832845</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>899849</v>
+        <v>901708</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6648463024200488</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6348341069451611</v>
+        <v>0.6393652485918484</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6908037351608008</v>
+        <v>0.6922310555397599</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>33556</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23077</v>
+        <v>23281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47156</v>
+        <v>45741</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05996077112903619</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04123643413392623</v>
+        <v>0.04159997932206658</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08426100689027154</v>
+        <v>0.08173251176998743</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>85</v>
@@ -4946,19 +4946,19 @@
         <v>92165</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>74132</v>
+        <v>73932</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111688</v>
+        <v>111442</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1240484924666495</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09977778068538708</v>
+        <v>0.09950862567774942</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1503247294543631</v>
+        <v>0.1499944415258842</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>116</v>
@@ -4967,19 +4967,19 @@
         <v>125721</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>106401</v>
+        <v>102540</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>147749</v>
+        <v>146729</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0965146900148703</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08168300574525486</v>
+        <v>0.07871907914600536</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1134251440640732</v>
+        <v>0.1126422713863743</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>41952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31026</v>
+        <v>30542</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>56071</v>
+        <v>57445</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07496228127889146</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05543911748133393</v>
+        <v>0.05457381554573649</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1001909030320516</v>
+        <v>0.1026475722203105</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -5017,19 +5017,19 @@
         <v>57044</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>43848</v>
+        <v>44256</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74066</v>
+        <v>72248</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07677759773989917</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05901736538916172</v>
+        <v>0.05956581691219077</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09968841798517597</v>
+        <v>0.09724138645018797</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>92</v>
@@ -5038,19 +5038,19 @@
         <v>98996</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>80743</v>
+        <v>81371</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121074</v>
+        <v>122123</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07599768914303173</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06198541245536852</v>
+        <v>0.06246775168451846</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09294708206599304</v>
+        <v>0.09375260601783762</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>40516</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28124</v>
+        <v>28027</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54505</v>
+        <v>55453</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07239606332318689</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05025363690106929</v>
+        <v>0.05007990532808768</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09739391913013373</v>
+        <v>0.09908787604778514</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>61</v>
@@ -5088,19 +5088,19 @@
         <v>67514</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52045</v>
+        <v>52718</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>83656</v>
+        <v>86074</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09087010262814087</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07004969003316622</v>
+        <v>0.07095519315012518</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1125963713940058</v>
+        <v>0.1158506604108734</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>95</v>
@@ -5109,19 +5109,19 @@
         <v>108030</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>87954</v>
+        <v>86851</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>132133</v>
+        <v>129034</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0829331602920358</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06752101489365342</v>
+        <v>0.06667411546744095</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1014372076726658</v>
+        <v>0.09905762415867475</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>33933</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23478</v>
+        <v>23339</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48311</v>
+        <v>48620</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06063433478055898</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04195228829737516</v>
+        <v>0.04170307752231689</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08632491261992964</v>
+        <v>0.08687816744129551</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -5159,19 +5159,19 @@
         <v>69896</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53315</v>
+        <v>52794</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>87250</v>
+        <v>86327</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09407528756815224</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07175944630351989</v>
+        <v>0.07105818324607988</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1174335845668217</v>
+        <v>0.1161907278687964</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -5180,19 +5180,19 @@
         <v>103829</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>84460</v>
+        <v>84710</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>126029</v>
+        <v>125360</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07970815813001332</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06483894355113701</v>
+        <v>0.06503060579909282</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0967506722458425</v>
+        <v>0.09623744534691724</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>108956</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100216</v>
+        <v>99912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117511</v>
+        <v>117833</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7968476704997995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7329244463521759</v>
+        <v>0.7307034939061078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8594109688088716</v>
+        <v>0.8617706309747231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -5545,19 +5545,19 @@
         <v>113253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99432</v>
+        <v>99942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126050</v>
+        <v>126469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6531645612743617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5734580582119171</v>
+        <v>0.5763981746230791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.726972362057437</v>
+        <v>0.7293849515285191</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>221</v>
@@ -5566,19 +5566,19 @@
         <v>222209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206614</v>
+        <v>204683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>237234</v>
+        <v>238092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7165144213660569</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6662265297605527</v>
+        <v>0.6600002001856509</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7649619751493095</v>
+        <v>0.7677304529989561</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>3460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8461</v>
+        <v>8326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02530144359656196</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007746044680061552</v>
+        <v>0.007628239475168825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06187691424643093</v>
+        <v>0.06089458907796087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -5616,19 +5616,19 @@
         <v>18696</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11617</v>
+        <v>11527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29792</v>
+        <v>29253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1078262551073743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0669971167602984</v>
+        <v>0.06648223923762089</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1718224143475596</v>
+        <v>0.1687094544539091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -5637,19 +5637,19 @@
         <v>22156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13895</v>
+        <v>13940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33556</v>
+        <v>33038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07144107878786081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04480610096120775</v>
+        <v>0.04494996188692496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1082017220062173</v>
+        <v>0.1065309227264408</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>9787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5253</v>
+        <v>5379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16181</v>
+        <v>16287</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07157464258868668</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03842122481033806</v>
+        <v>0.03933927693373467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1183366578765938</v>
+        <v>0.1191155175172637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -5687,19 +5687,19 @@
         <v>20841</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12752</v>
+        <v>12520</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32304</v>
+        <v>30764</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1201971494699157</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07354502477810002</v>
+        <v>0.07220462328427854</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1863088617031746</v>
+        <v>0.1774260131252529</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -5708,19 +5708,19 @@
         <v>30628</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21839</v>
+        <v>21250</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42965</v>
+        <v>42553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09875949388995131</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07041847978168383</v>
+        <v>0.06852068408333817</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1385402480144302</v>
+        <v>0.1372132222942097</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>8647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4435</v>
+        <v>4237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15158</v>
+        <v>15311</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06324119697614847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03243233631968644</v>
+        <v>0.03098353893408451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1108558636551222</v>
+        <v>0.1119764393195691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5758,19 +5758,19 @@
         <v>11001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5764</v>
+        <v>5637</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19834</v>
+        <v>20069</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06344592758050407</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03324419844228127</v>
+        <v>0.03250967086376835</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1143866532408415</v>
+        <v>0.115745711053122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5779,19 +5779,19 @@
         <v>19648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12049</v>
+        <v>12176</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29307</v>
+        <v>29456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06335566188948213</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03885243678240042</v>
+        <v>0.03926127400727496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09450160436085078</v>
+        <v>0.0949802146749418</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>5884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2544</v>
+        <v>2513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11758</v>
+        <v>11691</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04303504633880332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01860319121193862</v>
+        <v>0.01837788817074488</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08599287413402508</v>
+        <v>0.08550131151886202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5832,16 +5832,16 @@
         <v>4703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17505</v>
+        <v>17093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05536610656784412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02712589390484131</v>
+        <v>0.02712276786342053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.100956093363837</v>
+        <v>0.09857924241826364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -5850,19 +5850,19 @@
         <v>15484</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8361</v>
+        <v>8582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25132</v>
+        <v>24320</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04992934406664887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02695851075494571</v>
+        <v>0.02767404480967427</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08103894403161167</v>
+        <v>0.07841880576062273</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>124032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112467</v>
+        <v>113272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133325</v>
+        <v>133080</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.751976596262329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6818591510436415</v>
+        <v>0.6867428423261522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.808316893368662</v>
+        <v>0.8068365615714925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -5975,19 +5975,19 @@
         <v>138998</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122150</v>
+        <v>123214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>154214</v>
+        <v>153966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6342222100953211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5573466554480168</v>
+        <v>0.5622007999502777</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7036513368880399</v>
+        <v>0.7025196046474856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>247</v>
@@ -5996,19 +5996,19 @@
         <v>263030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243358</v>
+        <v>242807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280917</v>
+        <v>282183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6847879619992215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6335739718742571</v>
+        <v>0.6321385377786316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7313574941818147</v>
+        <v>0.7346522905882454</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>13859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8247</v>
+        <v>8135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21407</v>
+        <v>21276</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08402146673663895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04999789926206748</v>
+        <v>0.04931815387930567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1297857808694963</v>
+        <v>0.1289887503512376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -6046,19 +6046,19 @@
         <v>25711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17943</v>
+        <v>16470</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38114</v>
+        <v>36986</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1173156604776485</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08187040696537154</v>
+        <v>0.07514993832246339</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1739063676340381</v>
+        <v>0.1687601894382421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -6067,19 +6067,19 @@
         <v>39570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29169</v>
+        <v>27327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52000</v>
+        <v>52662</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1030185629736918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07593915640136044</v>
+        <v>0.0711454616523184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1353805915710644</v>
+        <v>0.1371027287533217</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>11831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6652</v>
+        <v>6755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20263</v>
+        <v>20587</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07173117355586078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04032884216152685</v>
+        <v>0.04095506547423754</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1228483572325952</v>
+        <v>0.1248145626489274</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -6117,19 +6117,19 @@
         <v>26664</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17684</v>
+        <v>17576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39278</v>
+        <v>40619</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1216651494545803</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08068990503502223</v>
+        <v>0.08019376623823553</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1792168993596607</v>
+        <v>0.1853364860502827</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>34</v>
@@ -6138,19 +6138,19 @@
         <v>38496</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27638</v>
+        <v>27624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51721</v>
+        <v>53169</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1002226442617043</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07195340950815936</v>
+        <v>0.07191827447515968</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1346535723610318</v>
+        <v>0.1384230753989414</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>9183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4342</v>
+        <v>4333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16023</v>
+        <v>16269</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05567469028942529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02632401942474345</v>
+        <v>0.02626853810328111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09714124906530278</v>
+        <v>0.0986349211363978</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -6188,19 +6188,19 @@
         <v>19706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12046</v>
+        <v>11331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31679</v>
+        <v>31006</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08991433770804885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05496287561030547</v>
+        <v>0.05170175812001629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1445442133278129</v>
+        <v>0.141473047652124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -6209,19 +6209,19 @@
         <v>28889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19066</v>
+        <v>19030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41879</v>
+        <v>40933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07521124618845475</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0496376538782284</v>
+        <v>0.0495444904210018</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1090309310190657</v>
+        <v>0.1065665107029271</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>6036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2659</v>
+        <v>2613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12198</v>
+        <v>12952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03659607315574594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01612343552134863</v>
+        <v>0.01584209413641543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07395273618048546</v>
+        <v>0.07852490539008766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6259,19 +6259,19 @@
         <v>8083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3351</v>
+        <v>3459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17191</v>
+        <v>17133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03688264226440126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01528991527400595</v>
+        <v>0.01578335407062131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07844062475546959</v>
+        <v>0.07817391388818473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -6280,19 +6280,19 @@
         <v>14120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8032</v>
+        <v>7312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24472</v>
+        <v>23596</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03675958457692765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02091073347525656</v>
+        <v>0.01903684312825866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06371256068311772</v>
+        <v>0.06143007004306607</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>88887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80624</v>
+        <v>79146</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97613</v>
+        <v>96780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7726950387479489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7008640437796796</v>
+        <v>0.6880197820888376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8485463863908815</v>
+        <v>0.8413113250049311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -6405,19 +6405,19 @@
         <v>88332</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75541</v>
+        <v>75625</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100257</v>
+        <v>100586</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6194561947026829</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5297583083365903</v>
+        <v>0.530346483502981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7030870512872236</v>
+        <v>0.7053913511853587</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>160</v>
@@ -6426,19 +6426,19 @@
         <v>177219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>159904</v>
+        <v>160463</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>191658</v>
+        <v>192228</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6878789920787837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6206697899993682</v>
+        <v>0.6228390869743106</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7439248410465715</v>
+        <v>0.7461364207354112</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>11906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5890</v>
+        <v>6389</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19243</v>
+        <v>19097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1035012263883637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05120146383027239</v>
+        <v>0.05553884731778909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1672805268728261</v>
+        <v>0.166013774127921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -6476,19 +6476,19 @@
         <v>13666</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7522</v>
+        <v>7403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21734</v>
+        <v>22453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0958376478840669</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05275304803125814</v>
+        <v>0.05191895022978063</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1524192167023307</v>
+        <v>0.1574584320423804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -6497,19 +6497,19 @@
         <v>25572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17077</v>
+        <v>17166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36043</v>
+        <v>36955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09925951837938625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06628494970698109</v>
+        <v>0.06663104806842501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1399019801297163</v>
+        <v>0.1434420032007911</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>5107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1834</v>
+        <v>1794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11290</v>
+        <v>11023</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04439450852598344</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01594317861903728</v>
+        <v>0.01559372348420761</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09814136520523466</v>
+        <v>0.09582605151530094</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -6547,19 +6547,19 @@
         <v>16483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9048</v>
+        <v>9385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28190</v>
+        <v>27197</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1155930087976215</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06345020384198007</v>
+        <v>0.06581208721560944</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1976946955255456</v>
+        <v>0.1907291502597135</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -6568,19 +6568,19 @@
         <v>21590</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13160</v>
+        <v>12830</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32717</v>
+        <v>32915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08380211016535631</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05108142463340081</v>
+        <v>0.04980040795138582</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1269925339205612</v>
+        <v>0.1277614249578409</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>7292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3474</v>
+        <v>3563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13805</v>
+        <v>13789</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06338818567386598</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03020286467923711</v>
+        <v>0.03097492746938679</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1200058034844194</v>
+        <v>0.1198663226917026</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -6618,19 +6618,19 @@
         <v>14243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7442</v>
+        <v>7520</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23922</v>
+        <v>23523</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09988417217979194</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05219159040013449</v>
+        <v>0.05273387390778915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1677588464470639</v>
+        <v>0.1649632467302057</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6639,19 +6639,19 @@
         <v>21535</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14211</v>
+        <v>13338</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33133</v>
+        <v>32649</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08358832039825388</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05515868828134007</v>
+        <v>0.05177116006981076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1286072401656068</v>
+        <v>0.1267291951614582</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5712</v>
+        <v>6274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01602104066383801</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04965466282317849</v>
+        <v>0.05453835554221066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -6689,19 +6689,19 @@
         <v>9872</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4828</v>
+        <v>4859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19546</v>
+        <v>18582</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06922897643583679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03386083525200659</v>
+        <v>0.03407305375910388</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1370759030731052</v>
+        <v>0.1303100886171674</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -6710,19 +6710,19 @@
         <v>11715</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5720</v>
+        <v>5995</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21128</v>
+        <v>20393</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0454710589782199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02220333069693439</v>
+        <v>0.02327125939464113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08200833480392486</v>
+        <v>0.07915485884076498</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>145110</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134217</v>
+        <v>133838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153913</v>
+        <v>153336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8310127963666218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7686307575117713</v>
+        <v>0.7664629274923647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8814287104044207</v>
+        <v>0.8781232565481621</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -6835,19 +6835,19 @@
         <v>159843</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141756</v>
+        <v>143013</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>176247</v>
+        <v>175378</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6583835307567834</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.583885002297113</v>
+        <v>0.5890630485987408</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7259491506468908</v>
+        <v>0.7223698503358501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>292</v>
@@ -6856,19 +6856,19 @@
         <v>304954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>285075</v>
+        <v>283713</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>322172</v>
+        <v>322197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7306026578460618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6829780866449782</v>
+        <v>0.6797160554465731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7718545138716972</v>
+        <v>0.7719139888452224</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>6033</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2554</v>
+        <v>2467</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11756</v>
+        <v>11927</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03454951066321428</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0146285176010849</v>
+        <v>0.01412865390358488</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06732285605527386</v>
+        <v>0.06830070186656588</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -6906,19 +6906,19 @@
         <v>36085</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24888</v>
+        <v>24772</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49186</v>
+        <v>49818</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1486316669161391</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1025115645238395</v>
+        <v>0.1020347803713592</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2025956088606415</v>
+        <v>0.2051975282946192</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>35</v>
@@ -6927,19 +6927,19 @@
         <v>42118</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29655</v>
+        <v>31180</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57332</v>
+        <v>58937</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1009056124030546</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07104639861774795</v>
+        <v>0.07470106171562008</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.137354890095102</v>
+        <v>0.1412014364518826</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>13483</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7681</v>
+        <v>7883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22101</v>
+        <v>22142</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07721340330680895</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04398986447530485</v>
+        <v>0.04514509793785054</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1265678412137872</v>
+        <v>0.1268032017881894</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -6977,19 +6977,19 @@
         <v>14302</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7511</v>
+        <v>7595</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24149</v>
+        <v>23027</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0589099054399756</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03093553718169104</v>
+        <v>0.03128479789885884</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09946973762904271</v>
+        <v>0.09484505964361721</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -6998,19 +6998,19 @@
         <v>27785</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18190</v>
+        <v>19333</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39053</v>
+        <v>40484</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06656713918857263</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04357968119578463</v>
+        <v>0.04631836323199164</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09356368078992128</v>
+        <v>0.09699038886377677</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>6890</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3335</v>
+        <v>3093</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14056</v>
+        <v>12911</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03945603570609517</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01909822955239907</v>
+        <v>0.01771552517472878</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08049473744163775</v>
+        <v>0.07394008272264205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -7048,19 +7048,19 @@
         <v>19176</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11402</v>
+        <v>10349</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31235</v>
+        <v>30926</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07898681820177018</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04696214585475237</v>
+        <v>0.0426276042476917</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1286555813819068</v>
+        <v>0.1273823458029252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -7069,19 +7069,19 @@
         <v>26066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16739</v>
+        <v>17051</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38510</v>
+        <v>38973</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06244919003711054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04010183970592803</v>
+        <v>0.04085169188292129</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09226273181504828</v>
+        <v>0.09337014658573425</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>3103</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8802</v>
+        <v>9576</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01776825395725971</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004521049977044687</v>
+        <v>0.004524900022285333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05040767386767876</v>
+        <v>0.05483789269357849</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7119,19 +7119,19 @@
         <v>13374</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6124</v>
+        <v>6419</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26731</v>
+        <v>25482</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05508807868533173</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0252235457393665</v>
+        <v>0.02643816727327191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1101037547891682</v>
+        <v>0.1049591739186248</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -7140,19 +7140,19 @@
         <v>16477</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7724</v>
+        <v>8808</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27087</v>
+        <v>28196</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03947540052520045</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01850429500035541</v>
+        <v>0.02110182100556711</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06489493511025067</v>
+        <v>0.06755170123685351</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>466985</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>448970</v>
+        <v>448311</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>485636</v>
+        <v>485461</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7897219938655612</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7592569727670571</v>
+        <v>0.7581427159999391</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8212639639979329</v>
+        <v>0.8209681446327856</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>432</v>
@@ -7265,19 +7265,19 @@
         <v>500426</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>470867</v>
+        <v>472476</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>528313</v>
+        <v>529819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6432779869014048</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.605280956554302</v>
+        <v>0.6073494610525761</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6791254886355941</v>
+        <v>0.6810612710993202</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>920</v>
@@ -7286,19 +7286,19 @@
         <v>967411</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>932695</v>
+        <v>936095</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1002118</v>
+        <v>1004925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7065212751459448</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6811674831522579</v>
+        <v>0.6836510603071196</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7318686126023086</v>
+        <v>0.7339185313845019</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>35257</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26014</v>
+        <v>25348</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47288</v>
+        <v>46607</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05962405304732495</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04399273625768781</v>
+        <v>0.04286697316210787</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07996908878298718</v>
+        <v>0.07881818247878374</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>78</v>
@@ -7336,19 +7336,19 @@
         <v>94158</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>74812</v>
+        <v>78382</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>116827</v>
+        <v>116495</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.121036922868483</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09616814562718476</v>
+        <v>0.1007569652228503</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1501771363209693</v>
+        <v>0.1497494802117567</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>118</v>
@@ -7357,19 +7357,19 @@
         <v>129416</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>108529</v>
+        <v>106710</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>153888</v>
+        <v>151667</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09451516954760762</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07926085390748742</v>
+        <v>0.07793247254741499</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1123880572898212</v>
+        <v>0.1107655899881556</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>40208</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29533</v>
+        <v>30141</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52318</v>
+        <v>53003</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06799588871503862</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04994400633420337</v>
+        <v>0.05097120248883598</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08847540216575692</v>
+        <v>0.08963440445127688</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -7407,19 +7407,19 @@
         <v>78291</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61603</v>
+        <v>61714</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98213</v>
+        <v>97479</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1006398985608169</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07918770848537482</v>
+        <v>0.07933061330081688</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1262493794647125</v>
+        <v>0.1253051454879787</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>108</v>
@@ -7428,19 +7428,19 @@
         <v>118499</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>97497</v>
+        <v>97756</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>138900</v>
+        <v>139897</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08654226106145875</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07120453597827898</v>
+        <v>0.07139307569905416</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1014417626123607</v>
+        <v>0.1021701479297547</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>32012</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22506</v>
+        <v>22647</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43472</v>
+        <v>42873</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05413552117561758</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03806015904188903</v>
+        <v>0.03829776834356612</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07351647542297472</v>
+        <v>0.07250314953400211</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>50</v>
@@ -7478,19 +7478,19 @@
         <v>64126</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49138</v>
+        <v>47955</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>83381</v>
+        <v>82491</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08243203371034717</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06316525185306404</v>
+        <v>0.06164420548584586</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1071828757077124</v>
+        <v>0.1060391586109921</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>86</v>
@@ -7499,19 +7499,19 @@
         <v>96138</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>75992</v>
+        <v>78898</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>117502</v>
+        <v>117185</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07021190578809525</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05549865224012165</v>
+        <v>0.05762110016324719</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08581405952924602</v>
+        <v>0.08558270390368362</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>16866</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10101</v>
+        <v>10520</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25133</v>
+        <v>26571</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02852254319645768</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01708254490182511</v>
+        <v>0.01779030025472673</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0425033884839567</v>
+        <v>0.04493518781543902</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -7549,19 +7549,19 @@
         <v>40929</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28169</v>
+        <v>28101</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55175</v>
+        <v>57102</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05261315795894816</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03621010448539244</v>
+        <v>0.03612259532133128</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07092532259679031</v>
+        <v>0.07340285516643441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>50</v>
@@ -7570,19 +7570,19 @@
         <v>57796</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43462</v>
+        <v>42305</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76875</v>
+        <v>75338</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0422093884568936</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03174129145482926</v>
+        <v>0.03089661831941043</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05614385302039265</v>
+        <v>0.05502108552630319</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>109411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99160</v>
+        <v>99467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118902</v>
+        <v>118764</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6699423719042825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6071757551645398</v>
+        <v>0.6090559802499154</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7280563530383418</v>
+        <v>0.7272118873858245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>241</v>
@@ -7935,19 +7935,19 @@
         <v>101436</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91788</v>
+        <v>92700</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110880</v>
+        <v>110693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5344282400175043</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4835954061616625</v>
+        <v>0.488399645547747</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5841841336665275</v>
+        <v>0.5831978907068568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>405</v>
@@ -7956,19 +7956,19 @@
         <v>210847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>195438</v>
+        <v>196676</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223761</v>
+        <v>224180</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.597102624857576</v>
+        <v>0.5971026248575761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5534646462235172</v>
+        <v>0.556972184511442</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6336739040874327</v>
+        <v>0.634859526973618</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>13926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9029</v>
+        <v>8936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20325</v>
+        <v>20479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08527149486375479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05528887267070063</v>
+        <v>0.05471395733011254</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1244509152738748</v>
+        <v>0.1253948912683155</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -8006,19 +8006,19 @@
         <v>21907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16451</v>
+        <v>16406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28241</v>
+        <v>28143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1154202637131387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08667657295367605</v>
+        <v>0.08643783781715166</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1487922479589446</v>
+        <v>0.1482738930465121</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -8027,19 +8027,19 @@
         <v>35833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27860</v>
+        <v>28592</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44238</v>
+        <v>45661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1014766586070721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07889847090210718</v>
+        <v>0.0809699824559038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1252786801756013</v>
+        <v>0.1293074768908526</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>10789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6768</v>
+        <v>6648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16349</v>
+        <v>16605</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06606322965656579</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04143904813360822</v>
+        <v>0.0407075992060479</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1001048016741996</v>
+        <v>0.1016745910677687</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -8077,19 +8077,19 @@
         <v>19422</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13720</v>
+        <v>13982</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25461</v>
+        <v>25803</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1023292396881509</v>
+        <v>0.1023292396881508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07228407506745349</v>
+        <v>0.07366796110161579</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1341447212639537</v>
+        <v>0.1359450946338186</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -8098,19 +8098,19 @@
         <v>30211</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23668</v>
+        <v>23661</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38607</v>
+        <v>38968</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08555645121445488</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06702660294468196</v>
+        <v>0.06700701693473002</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1093313086896725</v>
+        <v>0.1103545046824169</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>19237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12913</v>
+        <v>13102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26650</v>
+        <v>26772</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1177911548423766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07906752185287967</v>
+        <v>0.08022854360211056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1631840221973312</v>
+        <v>0.1639314335265448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -8148,19 +8148,19 @@
         <v>28419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21938</v>
+        <v>22681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35080</v>
+        <v>35594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1497283264240507</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1155837692223293</v>
+        <v>0.1194984268471137</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1848240574877008</v>
+        <v>0.1875297226478033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -8169,19 +8169,19 @@
         <v>47656</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38922</v>
+        <v>38433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58453</v>
+        <v>57545</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1349575969470275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1102227780854974</v>
+        <v>0.1088380094082965</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1655350399232465</v>
+        <v>0.1629630969704832</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>9951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6042</v>
+        <v>6125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15984</v>
+        <v>15666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06093174873302033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03699830196059673</v>
+        <v>0.037506172968426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09787351562864303</v>
+        <v>0.09592790283555219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -8219,19 +8219,19 @@
         <v>18619</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14139</v>
+        <v>13802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25203</v>
+        <v>24107</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09809393015715551</v>
+        <v>0.09809393015715549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07449448101307507</v>
+        <v>0.07271497355805506</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1327871053109509</v>
+        <v>0.1270118622150743</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -8240,19 +8240,19 @@
         <v>28570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22249</v>
+        <v>21710</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36342</v>
+        <v>36516</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.08090666837386938</v>
+        <v>0.08090666837386937</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06300660406636713</v>
+        <v>0.06148052564770685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1029177562087217</v>
+        <v>0.1034096208506811</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>133066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122355</v>
+        <v>122807</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141697</v>
+        <v>141950</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7467048250342047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6866003986322359</v>
+        <v>0.6891370628073686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7951406897038718</v>
+        <v>0.7965607125972145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>261</v>
@@ -8365,19 +8365,19 @@
         <v>140491</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129216</v>
+        <v>128600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>152746</v>
+        <v>150485</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.58360960482781</v>
+        <v>0.5836096048278099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5367752942262288</v>
+        <v>0.534214305907829</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6345195211172685</v>
+        <v>0.6251266377677968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>445</v>
@@ -8386,19 +8386,19 @@
         <v>273556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259185</v>
+        <v>258009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287645</v>
+        <v>288281</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.652986674517643</v>
+        <v>0.6529866745176431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6186843775470114</v>
+        <v>0.6158769066312323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6866193198298954</v>
+        <v>0.688135539985421</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>13502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8736</v>
+        <v>8286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20910</v>
+        <v>20172</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07576608876771639</v>
+        <v>0.0757660887677164</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04902435898076792</v>
+        <v>0.04649895438622557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1173397768346853</v>
+        <v>0.1131946803999851</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -8436,19 +8436,19 @@
         <v>29273</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22434</v>
+        <v>22335</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38213</v>
+        <v>37308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1216037662861116</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0931939162627675</v>
+        <v>0.09278178307498632</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1587398862562297</v>
+        <v>0.1549790921394521</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -8457,19 +8457,19 @@
         <v>42775</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33540</v>
+        <v>34256</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52321</v>
+        <v>53361</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1021054404394715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08006228292452894</v>
+        <v>0.08177126587151357</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1248917892121065</v>
+        <v>0.1273738299608461</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>10143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5944</v>
+        <v>5903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16750</v>
+        <v>16461</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05692000068953086</v>
+        <v>0.05692000068953088</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03335224882327318</v>
+        <v>0.0331261395550678</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09399083359734374</v>
+        <v>0.0923730451119821</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -8507,19 +8507,19 @@
         <v>21616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15730</v>
+        <v>15945</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28195</v>
+        <v>28882</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08979323698925415</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06534496165353833</v>
+        <v>0.06623497576690955</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1171229929043156</v>
+        <v>0.1199776587252833</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -8528,19 +8528,19 @@
         <v>31759</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24268</v>
+        <v>24230</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40276</v>
+        <v>41047</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0758096953329743</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05792898525841349</v>
+        <v>0.05783754808119936</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09614037247750251</v>
+        <v>0.09797972831738971</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>15830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10244</v>
+        <v>10193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23256</v>
+        <v>23726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08882847523328838</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05748627554632728</v>
+        <v>0.05719759453254322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1305045014368177</v>
+        <v>0.1331414220970701</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -8578,19 +8578,19 @@
         <v>26589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20593</v>
+        <v>20326</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33959</v>
+        <v>35260</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1104509092674598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08554543334668582</v>
+        <v>0.08443440936373918</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1410700910689502</v>
+        <v>0.1464715866721373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -8599,19 +8599,19 @@
         <v>42418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33490</v>
+        <v>33315</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52720</v>
+        <v>52830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1012532080046382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07994212365229518</v>
+        <v>0.07952465391308729</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1258451627846624</v>
+        <v>0.1261074236306367</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>5663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2869</v>
+        <v>2774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10071</v>
+        <v>10737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03178061027525965</v>
+        <v>0.03178061027525966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01609928458194248</v>
+        <v>0.01556772591983177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0565118581273632</v>
+        <v>0.06025377554669684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -8649,19 +8649,19 @@
         <v>22759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16794</v>
+        <v>16925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30820</v>
+        <v>30381</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09454248262936463</v>
+        <v>0.0945424826293646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06976524658956518</v>
+        <v>0.07030950525161285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1280288383857816</v>
+        <v>0.1262046547381056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -8670,19 +8670,19 @@
         <v>28422</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22231</v>
+        <v>21553</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37281</v>
+        <v>36822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06784498170527296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05306552509828514</v>
+        <v>0.05144733496551086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08899026733925171</v>
+        <v>0.08789434123683193</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>125919</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116855</v>
+        <v>115094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134694</v>
+        <v>133841</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7961670036364439</v>
+        <v>0.7961670036364438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.738853833099769</v>
+        <v>0.727718908361719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8516465578387657</v>
+        <v>0.8462523467189108</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -8795,19 +8795,19 @@
         <v>106685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95605</v>
+        <v>96863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>116063</v>
+        <v>115694</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6115812493197829</v>
+        <v>0.6115812493197831</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5480638972669715</v>
+        <v>0.555276706111924</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.66534125781074</v>
+        <v>0.6632276998485062</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>328</v>
@@ -8816,19 +8816,19 @@
         <v>232604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>219675</v>
+        <v>217554</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>246097</v>
+        <v>246252</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6993554782371658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.660482704810012</v>
+        <v>0.6541051721319873</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7399240956851678</v>
+        <v>0.7403881381891874</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>18629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11366</v>
+        <v>12587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26766</v>
+        <v>27692</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1177907556093053</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0718643529882128</v>
+        <v>0.07958530081457559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1692339529808055</v>
+        <v>0.1750897390292407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -8866,19 +8866,19 @@
         <v>24406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18176</v>
+        <v>17545</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32403</v>
+        <v>31914</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.139908100055111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1041965634369728</v>
+        <v>0.1005783269117762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.185755831673387</v>
+        <v>0.182948260996116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -8887,19 +8887,19 @@
         <v>43035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34290</v>
+        <v>33950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54497</v>
+        <v>55043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1293908591032423</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1030968923806987</v>
+        <v>0.1020741188625977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1638535135141121</v>
+        <v>0.1654951245637261</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>4378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1433</v>
+        <v>1747</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9221</v>
+        <v>9665</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02767852319399132</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009058041506439398</v>
+        <v>0.0110456007802812</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05830052536254942</v>
+        <v>0.06111235339029643</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -8937,19 +8937,19 @@
         <v>15296</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10261</v>
+        <v>10523</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21333</v>
+        <v>21817</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.08768843956014905</v>
+        <v>0.08768843956014906</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05882429629675246</v>
+        <v>0.06032664733985175</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1222946544057845</v>
+        <v>0.1250664067764601</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -8958,19 +8958,19 @@
         <v>19674</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13700</v>
+        <v>14164</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27289</v>
+        <v>27406</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05915252054551089</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04119179672870007</v>
+        <v>0.04258544746225087</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08204660778184036</v>
+        <v>0.08239867901309569</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>5515</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2355</v>
+        <v>2503</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11430</v>
+        <v>11009</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03487221275059192</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01488867029176843</v>
+        <v>0.01582606491364374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07226760124002109</v>
+        <v>0.06960948594984383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -9008,19 +9008,19 @@
         <v>12480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7465</v>
+        <v>7970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18352</v>
+        <v>19265</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07154088898535402</v>
+        <v>0.07154088898535403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04279331604503625</v>
+        <v>0.0456889505377561</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1052019409193826</v>
+        <v>0.1104390252750761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -9029,19 +9029,19 @@
         <v>17995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11985</v>
+        <v>11849</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25917</v>
+        <v>26019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05410419787209569</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03603553581205146</v>
+        <v>0.03562629989438122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07792434327182145</v>
+        <v>0.07822834825882302</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>3715</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10169</v>
+        <v>9274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02349150480966782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005969943713991835</v>
+        <v>0.005931924344882443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06429823305781611</v>
+        <v>0.05863871305934539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -9079,19 +9079,19 @@
         <v>15574</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10095</v>
+        <v>10224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22689</v>
+        <v>22005</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.089281322079603</v>
+        <v>0.08928132207960303</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05787172465732279</v>
+        <v>0.05861039279728196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1300686857965365</v>
+        <v>0.1261468095043175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>28</v>
@@ -9100,19 +9100,19 @@
         <v>19290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13117</v>
+        <v>12955</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27268</v>
+        <v>27743</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05799694424198536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03943800635360756</v>
+        <v>0.03895152632982313</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08198574994354717</v>
+        <v>0.08341316019744174</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>166354</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157192</v>
+        <v>155914</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>174717</v>
+        <v>174655</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7901594480196245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7466397688226598</v>
+        <v>0.7405729568444817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8298832839655804</v>
+        <v>0.8295864801111581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>323</v>
@@ -9225,19 +9225,19 @@
         <v>178845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>165793</v>
+        <v>166498</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>191382</v>
+        <v>191341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6098773689625816</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5653706459597748</v>
+        <v>0.5677738093446416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6526290593952928</v>
+        <v>0.6524911751641167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>574</v>
@@ -9246,19 +9246,19 @@
         <v>345198</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>329105</v>
+        <v>329641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>360655</v>
+        <v>362348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6852181192040238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.653273195410202</v>
+        <v>0.6543371968817081</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7158984114433797</v>
+        <v>0.7192602682187211</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>15861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10343</v>
+        <v>10708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22383</v>
+        <v>22381</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07533885093981844</v>
+        <v>0.07533885093981846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04912976000690576</v>
+        <v>0.05086202622712722</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1063159544209487</v>
+        <v>0.1063059670225594</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>75</v>
@@ -9296,19 +9296,19 @@
         <v>39794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31139</v>
+        <v>32176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48902</v>
+        <v>48943</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1357005714507759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1061878011017281</v>
+        <v>0.1097238217797248</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1667618429928028</v>
+        <v>0.1668997950614264</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -9317,19 +9317,19 @@
         <v>55655</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>45966</v>
+        <v>45310</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>66416</v>
+        <v>66403</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1104751173571338</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09124312103852102</v>
+        <v>0.08994097933568949</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1318360148161193</v>
+        <v>0.131809858893748</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>10479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6299</v>
+        <v>6663</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15607</v>
+        <v>15817</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04977514363048798</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02992121917173212</v>
+        <v>0.03164995058978073</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07412888928133611</v>
+        <v>0.07512822909351465</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -9367,19 +9367,19 @@
         <v>29552</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22280</v>
+        <v>21595</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37526</v>
+        <v>38576</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1007748337735517</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07597827183105732</v>
+        <v>0.07364061151080804</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1279673561593424</v>
+        <v>0.1315467251262853</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -9388,19 +9388,19 @@
         <v>40031</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31537</v>
+        <v>31435</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49300</v>
+        <v>50379</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07946181731868952</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06260146567090964</v>
+        <v>0.06239889625081953</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09786117713963285</v>
+        <v>0.1000025106365478</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>11604</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6964</v>
+        <v>7150</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17803</v>
+        <v>18152</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05511691074399908</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03307765342398475</v>
+        <v>0.03396142593438385</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0845621489729672</v>
+        <v>0.08621888160563101</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -9438,19 +9438,19 @@
         <v>27828</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20199</v>
+        <v>20248</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35862</v>
+        <v>36830</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09489448623126499</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06888189777718805</v>
+        <v>0.0690479314268642</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1222929899468366</v>
+        <v>0.125592516946944</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -9459,19 +9459,19 @@
         <v>39431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30853</v>
+        <v>30362</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51016</v>
+        <v>49918</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07827124560928402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06124285622009998</v>
+        <v>0.06026852154541461</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1012668547816249</v>
+        <v>0.09908617344828084</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>6234</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3052</v>
+        <v>3118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11107</v>
+        <v>11128</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02960964666607009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01449754207931351</v>
+        <v>0.01480990291937018</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05275822780410349</v>
+        <v>0.05285477554644085</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -9509,19 +9509,19 @@
         <v>17229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11272</v>
+        <v>11542</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25226</v>
+        <v>24599</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05875273958182595</v>
+        <v>0.05875273958182596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03843824478474395</v>
+        <v>0.0393604642076481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0860231194670709</v>
+        <v>0.08388373870732178</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -9530,19 +9530,19 @@
         <v>23463</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16387</v>
+        <v>17386</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32745</v>
+        <v>32522</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04657370051086881</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03252747294049221</v>
+        <v>0.0345113220148468</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06499921754952712</v>
+        <v>0.06455511363135225</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>534750</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>515218</v>
+        <v>515699</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>553754</v>
+        <v>553234</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7529494312616993</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7254472598106876</v>
+        <v>0.7261246903307806</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7797085139592973</v>
+        <v>0.7789760122730627</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1002</v>
@@ -9655,19 +9655,19 @@
         <v>527456</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>505729</v>
+        <v>505411</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>549139</v>
+        <v>548558</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5872252012977758</v>
+        <v>0.5872252012977759</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5630354803888477</v>
+        <v>0.5626814198717563</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6113649498217802</v>
+        <v>0.6107178161819365</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1752</v>
@@ -9676,19 +9676,19 @@
         <v>1062206</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1032170</v>
+        <v>1031311</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1092559</v>
+        <v>1092888</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6604014387789392</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6417273963040884</v>
+        <v>0.6411935791091388</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6792731997337307</v>
+        <v>0.6794777820794682</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>61919</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51238</v>
+        <v>50131</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>76428</v>
+        <v>74307</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08718378336886368</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0721448935983682</v>
+        <v>0.07058701424371118</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1076134581119297</v>
+        <v>0.1046271700991856</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>215</v>
@@ -9726,19 +9726,19 @@
         <v>115380</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>100747</v>
+        <v>101310</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>129768</v>
+        <v>130345</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1284542543160296</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1121632222275099</v>
+        <v>0.1127900946361052</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.144472284193455</v>
+        <v>0.1451154244109912</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>304</v>
@@ -9747,19 +9747,19 @@
         <v>177298</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>160505</v>
+        <v>156609</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>198935</v>
+        <v>196591</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1102311026160839</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09979047568069942</v>
+        <v>0.0973682410158459</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1236829362359261</v>
+        <v>0.1222259758411281</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>35789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26726</v>
+        <v>26838</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45228</v>
+        <v>45901</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05039268023217657</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03763074188192257</v>
+        <v>0.03778877034802305</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06368261164433457</v>
+        <v>0.06463047377180861</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -9797,19 +9797,19 @@
         <v>85886</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>73906</v>
+        <v>73263</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>97945</v>
+        <v>100055</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09561869093735671</v>
+        <v>0.09561869093735673</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08228090891333903</v>
+        <v>0.08156443611028978</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1090436809163186</v>
+        <v>0.1113925295818966</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>218</v>
@@ -9818,19 +9818,19 @@
         <v>121676</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>105822</v>
+        <v>105989</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>136990</v>
+        <v>138382</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07564895386023571</v>
+        <v>0.07564895386023569</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06579215797216749</v>
+        <v>0.06589635755898297</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08517044272712412</v>
+        <v>0.08603555683962763</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>52186</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>40754</v>
+        <v>41954</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>64717</v>
+        <v>64642</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07347956698491794</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05738272297646534</v>
+        <v>0.05907256116039203</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09112356814587894</v>
+        <v>0.09101873823875106</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>182</v>
@@ -9868,19 +9868,19 @@
         <v>95315</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>82819</v>
+        <v>83431</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>110111</v>
+        <v>109681</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1061151881575513</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09220404379348209</v>
+        <v>0.09288468813330027</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1225879752284954</v>
+        <v>0.1221091111673647</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>261</v>
@@ -9889,19 +9889,19 @@
         <v>147500</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130493</v>
+        <v>129386</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>167105</v>
+        <v>165543</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09170479104305711</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08113101838478369</v>
+        <v>0.08044296428638967</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1038937403591325</v>
+        <v>0.1029224832974626</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>25564</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18229</v>
+        <v>18578</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34209</v>
+        <v>34347</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03599453815234254</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02566696598628917</v>
+        <v>0.02615837904304467</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04816713577359755</v>
+        <v>0.04836244832045594</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>140</v>
@@ -9939,19 +9939,19 @@
         <v>74181</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61317</v>
+        <v>61497</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>87475</v>
+        <v>87247</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08258666529128655</v>
+        <v>0.08258666529128654</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06826498206088867</v>
+        <v>0.06846593379045934</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09738775837956096</v>
+        <v>0.0971329753130748</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>181</v>
@@ -9960,19 +9960,19 @@
         <v>99744</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>85860</v>
+        <v>86992</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>116019</v>
+        <v>115846</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06201371370168424</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05338134841892835</v>
+        <v>0.05408502650959335</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07213218670643061</v>
+        <v>0.07202452369147969</v>
       </c>
     </row>
     <row r="33">
